--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang7/02.TraBH/TBH_AnhTuanBG_210725.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang7/02.TraBH/TBH_AnhTuanBG_210725.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2025\Thang7\02.TraBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1216DFB-A3FE-4512-BD00-850E857A6181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DA9321-F4C1-4331-81EC-AFC48BC19F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="@*."/>
-    <numFmt numFmtId="170" formatCode="000000000000000"/>
+    <numFmt numFmtId="165" formatCode="000000000000000"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -610,6 +610,57 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,45 +676,6 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -672,18 +684,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1050,8 +1050,8 @@
   </sheetPr>
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1071,22 +1071,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="53" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="37" t="s">
         <v>17</v>
       </c>
@@ -1097,9 +1097,9 @@
       <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="40" t="s">
         <v>18</v>
       </c>
@@ -1110,9 +1110,9 @@
       <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="43" t="s">
         <v>16</v>
       </c>
@@ -1123,25 +1123,25 @@
       <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="26"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
@@ -1149,12 +1149,12 @@
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="26"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -1162,12 +1162,12 @@
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="26"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
@@ -1175,12 +1175,12 @@
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="26"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -1221,10 +1221,10 @@
       <c r="A11" s="27">
         <v>1</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="32">
         <v>5185070145159</v>
       </c>
       <c r="D11" s="30"/>
@@ -1245,10 +1245,10 @@
       <c r="A12" s="27">
         <v>2</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="32">
         <v>5185070141554</v>
       </c>
       <c r="D12" s="30"/>
@@ -1271,10 +1271,10 @@
       <c r="A13" s="27">
         <v>3</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="32">
         <v>5185070148666</v>
       </c>
       <c r="D13" s="30"/>
@@ -1295,10 +1295,10 @@
       <c r="A14" s="27">
         <v>4</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="32">
         <v>5581052581338</v>
       </c>
       <c r="D14" s="30"/>
@@ -1319,10 +1319,10 @@
       <c r="A15" s="27">
         <v>5</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="32">
         <v>6011074344458</v>
       </c>
       <c r="D15" s="30"/>
@@ -1345,10 +1345,10 @@
       <c r="A16" s="27">
         <v>6</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="32">
         <v>6011074340159</v>
       </c>
       <c r="D16" s="30"/>
@@ -1426,7 +1426,7 @@
       <c r="B19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="30"/>
@@ -1542,17 +1542,17 @@
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52">
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="34">
         <f>SUM(I11:I23)</f>
         <v>140000</v>
       </c>
@@ -1579,26 +1579,26 @@
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
     </row>
     <row r="28" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
@@ -1667,19 +1667,19 @@
       <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
     </row>
     <row r="35" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
@@ -1693,17 +1693,12 @@
       <c r="I35" s="20"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
     </row>
     <row r="76" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="B37:C37"/>
@@ -1716,8 +1711,13 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
   </mergeCells>
-  <pageMargins left="0.5" right="1" top="0.1" bottom="0.1" header="0" footer="0"/>
+  <pageMargins left="0.5" right="1" top="0.2" bottom="0.1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
